--- a/main/心理评测信息表——模版1.xlsx
+++ b/main/心理评测信息表——模版1.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,679 +887,679 @@
       <c r="DH2" s="4"/>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>3</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>5</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DG3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DH3" s="1">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>3</v>
+      </c>
+      <c r="DF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="2">
+        <v>3</v>
+      </c>
+      <c r="DH3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>3</v>
-      </c>
-      <c r="S4" s="2">
-        <v>3</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CN4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CS4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CV4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CY4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CZ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="2">
-        <v>3</v>
-      </c>
-      <c r="DF4" s="2">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="2">
-        <v>3</v>
-      </c>
-      <c r="DH4" s="2">
-        <v>2</v>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="1">
+        <v>3</v>
+      </c>
+      <c r="DH4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.15">
